--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-239369.1423989753</v>
+        <v>-241833.2058426799</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>359.9208377729991</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>310.2981836910727</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>243.2395284792055</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498657</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>139.9236777330947</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>243.4695582798647</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>20.78914821090351</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>61.41699360806091</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>41.18186977483148</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>12.40418031676368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>12.12106316694089</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>66.78780403763518</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>314.9029209504221</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11.94019082598528</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>3.797794845138544</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>134.3542165280277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>80.56412890121561</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>72.01539947949661</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.602497644398836</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6164309267675</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6324680438218387</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>90.85912858529824</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>126.6321535627876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>14.53306611597336</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067215</v>
+        <v>2196.097994299123</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1827.135477358712</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1468.869778751961</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1083.081526153717</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>719.5251243628088</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2763.640912107148</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2763.640912107148</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W2" t="n">
-        <v>2763.640912107148</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X2" t="n">
-        <v>2763.640912107148</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131337</v>
+        <v>2582.697834363245</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4422,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>364.5418494269122</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269122</v>
+        <v>207.8491646474306</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>207.8491646474306</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>674.9581590708461</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>653.9590194638729</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W4" t="n">
-        <v>364.5418494269122</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="X4" t="n">
-        <v>364.5418494269122</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="Y4" t="n">
-        <v>364.5418494269122</v>
+        <v>376.7853475753375</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204826</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1312.873537264415</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>954.6078386576642</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3284.007973351765</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3078.030225735987</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>3078.030225735987</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2746.967338392416</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2746.967338392416</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204826</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4689,7 +4689,7 @@
         <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.5418494269122</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372932</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="U7" t="n">
-        <v>908.6435076697597</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="V7" t="n">
-        <v>653.9590194638729</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="W7" t="n">
-        <v>364.5418494269122</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="X7" t="n">
-        <v>364.5418494269122</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y7" t="n">
-        <v>364.5418494269122</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>2001.643962205201</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1632.681445264789</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1274.415746658039</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>888.6274940597946</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.723170258544</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>2388.243802269323</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>696.2582702654239</v>
+        <v>529.5785797246257</v>
       </c>
       <c r="C10" t="n">
-        <v>527.322087337517</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>541.6393785387522</v>
       </c>
       <c r="X10" t="n">
-        <v>917.050849408954</v>
+        <v>541.6393785387522</v>
       </c>
       <c r="Y10" t="n">
-        <v>696.2582702654239</v>
+        <v>541.6393785387522</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5227,22 +5227,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,13 +5297,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>1097.958364892466</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>929.022181964559</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>778.9055425522232</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>630.9924489698301</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.1025014719197</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>316.9064021867997</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.1945710289977</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>664.287526121196</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>516.3744325388029</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4844850408925</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1327.139029956954</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1106.346450813424</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,13 +5771,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.3929232910542</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C22" t="n">
-        <v>782.4567403631473</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D22" t="n">
-        <v>632.3401009508116</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.041388121294</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6598,16 +6598,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6692,10 +6692,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>417.4044582545033</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>250.2083589693833</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>108.4965278115813</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7309,16 +7309,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,28 +7330,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2437.724555511392</v>
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,7 +7722,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7731,16 +7731,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,13 +7840,13 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>100.6235419623807</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>7.755643479696488</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>42.7422799257482</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>32.89260457060166</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23467,7 +23467,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.7017074173499225</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>146.5692538725982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>172.2294825375385</v>
+        <v>179.8319801819382</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>32.9077073655013</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>145.8014946027473</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>54.56191943763301</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922702</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>66.73277020259218</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1007310.210877295</v>
+        <v>1007310.210877296</v>
       </c>
     </row>
     <row r="3">
@@ -26317,43 +26317,43 @@
         <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
         <v>302679.9748837521</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="H2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="I2" t="n">
         <v>302679.9748837522</v>
-      </c>
-      <c r="I2" t="n">
-        <v>302679.9748837521</v>
       </c>
       <c r="J2" t="n">
         <v>302679.9748837523</v>
       </c>
       <c r="K2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551194</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43110.95474649299</v>
+        <v>43110.95474649296</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26439,25 +26439,25 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
+        <v>14826.69604186737</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14826.69604186737</v>
+      </c>
+      <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="K4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14826.69604186738</v>
-      </c>
       <c r="M4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496083</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1205068.67443258</v>
+        <v>-1205289.805746555</v>
       </c>
       <c r="C6" t="n">
-        <v>106359.9790336599</v>
+        <v>106359.9790336602</v>
       </c>
       <c r="D6" t="n">
-        <v>106359.9790336602</v>
+        <v>106359.9790336604</v>
       </c>
       <c r="E6" t="n">
-        <v>-138681.7127893775</v>
+        <v>-138716.4507148131</v>
       </c>
       <c r="F6" t="n">
-        <v>186730.7490179776</v>
+        <v>186696.0110925421</v>
       </c>
       <c r="G6" t="n">
-        <v>186730.7490179776</v>
+        <v>186696.0110925421</v>
       </c>
       <c r="H6" t="n">
-        <v>186730.7490179778</v>
+        <v>186696.0110925421</v>
       </c>
       <c r="I6" t="n">
-        <v>186730.7490179777</v>
+        <v>186696.011092542</v>
       </c>
       <c r="J6" t="n">
-        <v>-30800.4533792997</v>
+        <v>-30835.1913047354</v>
       </c>
       <c r="K6" t="n">
-        <v>186730.7490179777</v>
+        <v>186696.0110925421</v>
       </c>
       <c r="L6" t="n">
-        <v>186730.7490179776</v>
+        <v>186696.0110925421</v>
       </c>
       <c r="M6" t="n">
-        <v>101675.7210824658</v>
+        <v>101640.9831570302</v>
       </c>
       <c r="N6" t="n">
-        <v>186730.7490179777</v>
+        <v>186696.0110925421</v>
       </c>
       <c r="O6" t="n">
-        <v>186730.7490179777</v>
+        <v>186696.0110925424</v>
       </c>
       <c r="P6" t="n">
-        <v>162481.274546598</v>
+        <v>162481.2745465981</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>46.95520796871233</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6.510284913474464</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,10 +27591,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>231.3484951129245</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>320.5133764642009</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>68.00589201334435</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27822,22 +27822,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>177.3648450146782</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>274.090775038672</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>340.0882417040763</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>54.82817972804696</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>167.891789355952</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>221.9118605438986</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>188.4731159523455</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32789,25 +32789,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>726.7533607666135</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,10 +34235,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,25 +34445,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>467.1465236515248</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>45.87687150790109</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36437,25 +36437,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,19 +37625,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>584.6193268445951</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>328.5921438716506</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
